--- a/DEM/samples/Jun_30_2018/ATREL TEST RESULT.xlsx
+++ b/DEM/samples/Jun_30_2018/ATREL TEST RESULT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/DEM/samples/Jun_30_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C3552-45EA-6C4F-A319-ADF7D4832592}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604E9F6-B3E6-9940-94AB-C2F8492144F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Volume (cm^3)</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>ref: https://www.myonlinetraininghub.com/excel-factor-14-interleave-data-from-two-columns-into-one</t>
+  </si>
+  <si>
+    <t>ref:http://www.excel123.cn/Article/excelhanshu/200911/521.html</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+      <selection activeCell="K2" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2125,15 +2128,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DE76BE-AC7A-324F-852F-F3427397E414}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1">
         <v>1012.8999999999999</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>762.40000000000009</v>
       </c>
@@ -2159,8 +2162,11 @@
         <f ca="1">INDIRECT("B"&amp;ROW()/2)</f>
         <v>1012.8999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>596.9</v>
       </c>
@@ -2168,11 +2174,31 @@
         <v>596.9</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C34" ca="1" si="0">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C3" ca="1" si="0">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>762.40000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>2683.7</v>
+      </c>
+      <c r="G3">
+        <f ca="1">OFFSET(F$3,ROUNDUP(ROW(F1)/2,0)-1,0)</f>
+        <v>2683.7</v>
+      </c>
+      <c r="H3">
+        <v>2683.7</v>
+      </c>
+      <c r="J3">
+        <v>1014.8999999999999</v>
+      </c>
+      <c r="K3">
+        <f ca="1">OFFSET(J$3,ROUNDUP(ROW(J1)/2,0)-1,0)</f>
+        <v>1014.8999999999999</v>
+      </c>
+      <c r="L3">
+        <v>1014.8999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>785.19999999999982</v>
       </c>
@@ -2180,11 +2206,31 @@
         <v>785.19999999999982</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C35" ca="1" si="1">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C4" ca="1" si="1">INDIRECT("B"&amp;ROW()/2)</f>
         <v>762.40000000000009</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>2050.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" ca="1" si="2">OFFSET(F$3,ROUNDUP(ROW(F2)/2,0)-1,0)</f>
+        <v>2683.7</v>
+      </c>
+      <c r="H4">
+        <v>2050.5</v>
+      </c>
+      <c r="J4">
+        <v>763.5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:L67" ca="1" si="3">OFFSET(J$3,ROUNDUP(ROW(J2)/2,0)-1,0)</f>
+        <v>1014.8999999999999</v>
+      </c>
+      <c r="L4">
+        <v>763.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>723.90000000000009</v>
       </c>
@@ -2192,11 +2238,31 @@
         <v>723.90000000000009</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C36" ca="1" si="2">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C5" ca="1" si="4">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>596.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>1542.8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2050.5</v>
+      </c>
+      <c r="H5">
+        <v>1542.8</v>
+      </c>
+      <c r="J5">
+        <v>601.80000000000007</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="3"/>
+        <v>763.5</v>
+      </c>
+      <c r="L5">
+        <v>601.80000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>684.89999999999986</v>
       </c>
@@ -2204,11 +2270,31 @@
         <v>684.89999999999986</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C37" ca="1" si="3">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C6" ca="1" si="5">INDIRECT("B"&amp;ROW()/2)</f>
         <v>596.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="2"/>
+        <v>2050.5</v>
+      </c>
+      <c r="H6">
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="J6">
+        <v>791.40000000000009</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="3"/>
+        <v>763.5</v>
+      </c>
+      <c r="L6">
+        <v>791.40000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>642.60000000000014</v>
       </c>
@@ -2216,11 +2302,31 @@
         <v>642.60000000000014</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" ca="1" si="4">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C7" ca="1" si="6">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>785.19999999999982</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>1828.7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1542.8</v>
+      </c>
+      <c r="H7">
+        <v>1828.7</v>
+      </c>
+      <c r="J7">
+        <v>727.59999999999991</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="3"/>
+        <v>601.80000000000007</v>
+      </c>
+      <c r="L7">
+        <v>727.59999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1137.5999999999999</v>
       </c>
@@ -2228,11 +2334,31 @@
         <v>1137.5999999999999</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C39" ca="1" si="5">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C8" ca="1" si="7">INDIRECT("B"&amp;ROW()/2)</f>
         <v>785.19999999999982</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>1855.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1542.8</v>
+      </c>
+      <c r="H8">
+        <v>1855.3</v>
+      </c>
+      <c r="J8">
+        <v>688.09999999999991</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="3"/>
+        <v>601.80000000000007</v>
+      </c>
+      <c r="L8">
+        <v>688.09999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>587.90000000000009</v>
       </c>
@@ -2240,11 +2366,31 @@
         <v>587.90000000000009</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C40" ca="1" si="6">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C9" ca="1" si="8">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>723.90000000000009</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>1772.4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="2"/>
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="H9">
+        <v>1772.4</v>
+      </c>
+      <c r="J9">
+        <v>644</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="3"/>
+        <v>791.40000000000009</v>
+      </c>
+      <c r="L9">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>887.2</v>
       </c>
@@ -2252,11 +2398,31 @@
         <v>887.2</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C41" ca="1" si="7">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C10" ca="1" si="9">INDIRECT("B"&amp;ROW()/2)</f>
         <v>723.90000000000009</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>3127.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="H10">
+        <v>3127.7</v>
+      </c>
+      <c r="J10">
+        <v>1140.5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="3"/>
+        <v>791.40000000000009</v>
+      </c>
+      <c r="L10">
+        <v>1140.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>952.8</v>
       </c>
@@ -2264,11 +2430,31 @@
         <v>952.8</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C42" ca="1" si="8">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C11" ca="1" si="10">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>684.89999999999986</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>1557.7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1828.7</v>
+      </c>
+      <c r="H11">
+        <v>1557.7</v>
+      </c>
+      <c r="J11">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="3"/>
+        <v>727.59999999999991</v>
+      </c>
+      <c r="L11">
+        <v>592.70000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>797</v>
       </c>
@@ -2276,11 +2462,31 @@
         <v>797</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C43" ca="1" si="9">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C12" ca="1" si="11">INDIRECT("B"&amp;ROW()/2)</f>
         <v>684.89999999999986</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <v>2440.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1828.7</v>
+      </c>
+      <c r="H12">
+        <v>2440.5</v>
+      </c>
+      <c r="J12">
+        <v>890.80000000000018</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="3"/>
+        <v>727.59999999999991</v>
+      </c>
+      <c r="L12">
+        <v>890.80000000000018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>906.29999999999973</v>
       </c>
@@ -2288,11 +2494,31 @@
         <v>906.29999999999973</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C44" ca="1" si="10">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C13" ca="1" si="12">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>642.60000000000014</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <v>2463.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1855.3</v>
+      </c>
+      <c r="H13">
+        <v>2463.5</v>
+      </c>
+      <c r="J13">
+        <v>966.09999999999991</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="3"/>
+        <v>688.09999999999991</v>
+      </c>
+      <c r="L13">
+        <v>966.09999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>582.59999999999991</v>
       </c>
@@ -2300,11 +2526,31 @@
         <v>582.59999999999991</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C45" ca="1" si="11">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C14" ca="1" si="13">INDIRECT("B"&amp;ROW()/2)</f>
         <v>642.60000000000014</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>2107.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="2"/>
+        <v>1855.3</v>
+      </c>
+      <c r="H14">
+        <v>2107.5</v>
+      </c>
+      <c r="J14">
+        <v>800.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="3"/>
+        <v>688.09999999999991</v>
+      </c>
+      <c r="L14">
+        <v>800.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1037.8</v>
       </c>
@@ -2312,11 +2558,31 @@
         <v>1037.8</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C46" ca="1" si="12">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C15" ca="1" si="14">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>1137.5999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="2"/>
+        <v>1772.4</v>
+      </c>
+      <c r="H15">
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="J15">
+        <v>911.40000000000009</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="3"/>
+        <v>644</v>
+      </c>
+      <c r="L15">
+        <v>911.40000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>661.7</v>
       </c>
@@ -2324,11 +2590,31 @@
         <v>661.7</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C47" ca="1" si="13">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C16" ca="1" si="15">INDIRECT("B"&amp;ROW()/2)</f>
         <v>1137.5999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16">
+        <v>1608</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1772.4</v>
+      </c>
+      <c r="H16">
+        <v>1608</v>
+      </c>
+      <c r="J16">
+        <v>586</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="3"/>
+        <v>644</v>
+      </c>
+      <c r="L16">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>694.2</v>
       </c>
@@ -2336,11 +2622,31 @@
         <v>694.2</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C48" ca="1" si="14">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C17" ca="1" si="16">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>587.90000000000009</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17">
+        <v>2621</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3127.7</v>
+      </c>
+      <c r="H17">
+        <v>2621</v>
+      </c>
+      <c r="J17">
+        <v>1043.5999999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="3"/>
+        <v>1140.5</v>
+      </c>
+      <c r="L17">
+        <v>1043.5999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>453.89999999999986</v>
       </c>
@@ -2348,11 +2654,31 @@
         <v>453.89999999999986</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C49" ca="1" si="15">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C18" ca="1" si="17">INDIRECT("B"&amp;ROW()/2)</f>
         <v>587.90000000000009</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="F18">
+        <v>1709.7</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3127.7</v>
+      </c>
+      <c r="H18">
+        <v>1709.7</v>
+      </c>
+      <c r="J18">
+        <v>667.3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1140.5</v>
+      </c>
+      <c r="L18">
+        <v>667.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>789.80000000000018</v>
       </c>
@@ -2360,11 +2686,31 @@
         <v>789.80000000000018</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C50" ca="1" si="16">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C19" ca="1" si="18">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>887.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="F19">
+        <v>1831.4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="2"/>
+        <v>1557.7</v>
+      </c>
+      <c r="H19">
+        <v>1831.4</v>
+      </c>
+      <c r="J19">
+        <v>698.5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="3"/>
+        <v>592.70000000000005</v>
+      </c>
+      <c r="L19">
+        <v>698.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1176.7000000000003</v>
       </c>
@@ -2372,11 +2718,31 @@
         <v>1176.7000000000003</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C51" ca="1" si="17">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C20" ca="1" si="19">INDIRECT("B"&amp;ROW()/2)</f>
         <v>887.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="F20">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1557.7</v>
+      </c>
+      <c r="H20">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="J20">
+        <v>457.20000000000005</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="3"/>
+        <v>592.70000000000005</v>
+      </c>
+      <c r="L20">
+        <v>457.20000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>781.5</v>
       </c>
@@ -2384,11 +2750,31 @@
         <v>781.5</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C52" ca="1" si="18">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C21" ca="1" si="20">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>952.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="F21">
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>2440.5</v>
+      </c>
+      <c r="H21">
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="J21">
+        <v>795.60000000000014</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="3"/>
+        <v>890.80000000000018</v>
+      </c>
+      <c r="L21">
+        <v>795.60000000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>871.49999999999977</v>
       </c>
@@ -2396,11 +2782,31 @@
         <v>871.49999999999977</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C53" ca="1" si="19">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C22" ca="1" si="21">INDIRECT("B"&amp;ROW()/2)</f>
         <v>952.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="F22">
+        <v>3041.3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2440.5</v>
+      </c>
+      <c r="H22">
+        <v>3041.3</v>
+      </c>
+      <c r="J22">
+        <v>1183.3999999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="3"/>
+        <v>890.80000000000018</v>
+      </c>
+      <c r="L22">
+        <v>1183.3999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>651.20000000000005</v>
       </c>
@@ -2408,11 +2814,31 @@
         <v>651.20000000000005</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C54" ca="1" si="20">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C23" ca="1" si="22">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>797</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="F23">
+        <v>2103.1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="2"/>
+        <v>2463.5</v>
+      </c>
+      <c r="H23">
+        <v>2103.1</v>
+      </c>
+      <c r="J23">
+        <v>785.90000000000009</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="3"/>
+        <v>966.09999999999991</v>
+      </c>
+      <c r="L23">
+        <v>785.90000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>969.59999999999991</v>
       </c>
@@ -2420,11 +2846,31 @@
         <v>969.59999999999991</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C55" ca="1" si="21">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C24" ca="1" si="23">INDIRECT("B"&amp;ROW()/2)</f>
         <v>797</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="F24">
+        <v>2377.6999999999998</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2463.5</v>
+      </c>
+      <c r="H24">
+        <v>2377.6999999999998</v>
+      </c>
+      <c r="J24">
+        <v>876.80000000000018</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="3"/>
+        <v>966.09999999999991</v>
+      </c>
+      <c r="L24">
+        <v>876.80000000000018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>956.60000000000014</v>
       </c>
@@ -2432,11 +2878,31 @@
         <v>956.60000000000014</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C56" ca="1" si="22">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C25" ca="1" si="24">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>906.29999999999973</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="F25">
+        <v>1745.2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2107.5</v>
+      </c>
+      <c r="H25">
+        <v>1745.2</v>
+      </c>
+      <c r="J25">
+        <v>653.79999999999995</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="3"/>
+        <v>800.8</v>
+      </c>
+      <c r="L25">
+        <v>653.79999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>638.80000000000018</v>
       </c>
@@ -2444,11 +2910,31 @@
         <v>638.80000000000018</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C57" ca="1" si="23">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C26" ca="1" si="25">INDIRECT("B"&amp;ROW()/2)</f>
         <v>906.29999999999973</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="F26">
+        <v>2627.1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="2"/>
+        <v>2107.5</v>
+      </c>
+      <c r="H26">
+        <v>2627.1</v>
+      </c>
+      <c r="J26">
+        <v>974</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="3"/>
+        <v>800.8</v>
+      </c>
+      <c r="L26">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>814.40000000000009</v>
       </c>
@@ -2456,11 +2942,31 @@
         <v>814.40000000000009</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C58" ca="1" si="24">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C27" ca="1" si="26">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>582.59999999999991</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="F27">
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="2"/>
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="H27">
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="J27">
+        <v>962.80000000000018</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="3"/>
+        <v>911.40000000000009</v>
+      </c>
+      <c r="L27">
+        <v>962.80000000000018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>923.8</v>
       </c>
@@ -2468,11 +2974,31 @@
         <v>923.8</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C59" ca="1" si="25">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C28" ca="1" si="27">INDIRECT("B"&amp;ROW()/2)</f>
         <v>582.59999999999991</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="F28">
+        <v>1727.4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="H28">
+        <v>1727.4</v>
+      </c>
+      <c r="J28">
+        <v>639.20000000000005</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="3"/>
+        <v>911.40000000000009</v>
+      </c>
+      <c r="L28">
+        <v>639.20000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>800.90000000000009</v>
       </c>
@@ -2480,11 +3006,31 @@
         <v>800.90000000000009</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C60" ca="1" si="26">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C29" ca="1" si="28">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>1037.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="F29">
+        <v>2216</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="2"/>
+        <v>1608</v>
+      </c>
+      <c r="H29">
+        <v>2216</v>
+      </c>
+      <c r="J29">
+        <v>816.40000000000009</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="L29">
+        <v>816.40000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>948</v>
       </c>
@@ -2492,11 +3038,31 @@
         <v>948</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C61" ca="1" si="27">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C30" ca="1" si="29">INDIRECT("B"&amp;ROW()/2)</f>
         <v>1037.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="F30">
+        <v>2447</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>1608</v>
+      </c>
+      <c r="H30">
+        <v>2447</v>
+      </c>
+      <c r="J30">
+        <v>926.3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="L30">
+        <v>926.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>767.7</v>
       </c>
@@ -2504,11 +3070,31 @@
         <v>767.7</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:C62" ca="1" si="28">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C31" ca="1" si="30">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>661.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="F31">
+        <v>2116</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>2621</v>
+      </c>
+      <c r="H31">
+        <v>2116</v>
+      </c>
+      <c r="J31">
+        <v>808</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="3"/>
+        <v>1043.5999999999999</v>
+      </c>
+      <c r="L31">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1074.5</v>
       </c>
@@ -2516,11 +3102,31 @@
         <v>1074.5</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C63" ca="1" si="29">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C32" ca="1" si="31">INDIRECT("B"&amp;ROW()/2)</f>
         <v>661.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="F32">
+        <v>2380</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="2"/>
+        <v>2621</v>
+      </c>
+      <c r="H32">
+        <v>2380</v>
+      </c>
+      <c r="J32">
+        <v>955.09999999999991</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="3"/>
+        <v>1043.5999999999999</v>
+      </c>
+      <c r="L32">
+        <v>955.09999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>557.1</v>
       </c>
@@ -2528,11 +3134,31 @@
         <v>557.1</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C64" ca="1" si="30">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C33" ca="1" si="32">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>694.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="F33">
+        <v>2030</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="2"/>
+        <v>1709.7</v>
+      </c>
+      <c r="H33">
+        <v>2030</v>
+      </c>
+      <c r="J33">
+        <v>769.30000000000018</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="3"/>
+        <v>667.3</v>
+      </c>
+      <c r="L33">
+        <v>769.30000000000018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>841.80000000000018</v>
       </c>
@@ -2540,11 +3166,31 @@
         <v>841.80000000000018</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" ca="1" si="31">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C34" ca="1" si="33">INDIRECT("B"&amp;ROW()/2)</f>
         <v>694.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="F34">
+        <v>2753.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="2"/>
+        <v>1709.7</v>
+      </c>
+      <c r="H34">
+        <v>2753.5</v>
+      </c>
+      <c r="J34">
+        <v>1089.5999999999999</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="3"/>
+        <v>667.3</v>
+      </c>
+      <c r="L34">
+        <v>1089.5999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>968.90000000000009</v>
       </c>
@@ -2552,11 +3198,31 @@
         <v>968.90000000000009</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C66" ca="1" si="32">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C35" ca="1" si="34">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>453.89999999999986</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="F35">
+        <v>1534</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1831.4</v>
+      </c>
+      <c r="H35">
+        <v>1534</v>
+      </c>
+      <c r="J35">
+        <v>558.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="3"/>
+        <v>698.5</v>
+      </c>
+      <c r="L35">
+        <v>558.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>778.7</v>
       </c>
@@ -2564,11 +3230,31 @@
         <v>778.7</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C83" ca="1" si="33">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C36" ca="1" si="35">INDIRECT("B"&amp;ROW()/2)</f>
         <v>453.89999999999986</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="F36">
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="2"/>
+        <v>1831.4</v>
+      </c>
+      <c r="H36">
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="J36">
+        <v>842.39999999999986</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="3"/>
+        <v>698.5</v>
+      </c>
+      <c r="L36">
+        <v>842.39999999999986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>899.7</v>
       </c>
@@ -2576,11 +3262,31 @@
         <v>899.7</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C83" ca="1" si="34">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C37" ca="1" si="36">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>789.80000000000018</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="F37">
+        <v>2563.9</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="2"/>
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="H37">
+        <v>2563.9</v>
+      </c>
+      <c r="J37">
+        <v>978.20000000000027</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="3"/>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="L37">
+        <v>978.20000000000027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>872.80000000000018</v>
       </c>
@@ -2588,11 +3294,31 @@
         <v>872.80000000000018</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C83" ca="1" si="35">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C38" ca="1" si="37">INDIRECT("B"&amp;ROW()/2)</f>
         <v>789.80000000000018</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="F38">
+        <v>2043.3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="2"/>
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="H38">
+        <v>2043.3</v>
+      </c>
+      <c r="J38">
+        <v>787.30000000000018</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="3"/>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="L38">
+        <v>787.30000000000018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>740.90000000000009</v>
       </c>
@@ -2600,11 +3326,31 @@
         <v>740.90000000000009</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C83" ca="1" si="36">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C39" ca="1" si="38">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>1176.7000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="F39">
+        <v>2383.5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="2"/>
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="H39">
+        <v>2383.5</v>
+      </c>
+      <c r="J39">
+        <v>903.90000000000009</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="3"/>
+        <v>795.60000000000014</v>
+      </c>
+      <c r="L39">
+        <v>903.90000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>802.7</v>
       </c>
@@ -2612,248 +3358,1192 @@
         <v>802.7</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C83" ca="1" si="37">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C40" ca="1" si="39">INDIRECT("B"&amp;ROW()/2)</f>
         <v>1176.7000000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="F40">
+        <v>2281.4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="2"/>
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="H40">
+        <v>2281.4</v>
+      </c>
+      <c r="J40">
+        <v>878.60000000000014</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="3"/>
+        <v>795.60000000000014</v>
+      </c>
+      <c r="L40">
+        <v>878.60000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="C41">
-        <f t="shared" ref="C41:C83" ca="1" si="38">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C41" ca="1" si="40">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>781.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="F41">
+        <v>1885.9</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="2"/>
+        <v>3041.3</v>
+      </c>
+      <c r="H41">
+        <v>1885.9</v>
+      </c>
+      <c r="J41">
+        <v>746.8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="3"/>
+        <v>1183.3999999999999</v>
+      </c>
+      <c r="L41">
+        <v>746.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="C42">
-        <f t="shared" ref="C42:C83" ca="1" si="39">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C42" ca="1" si="41">INDIRECT("B"&amp;ROW()/2)</f>
         <v>781.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="F42">
+        <v>2041.7</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="2"/>
+        <v>3041.3</v>
+      </c>
+      <c r="H42">
+        <v>2041.7</v>
+      </c>
+      <c r="J42">
+        <v>820.20000000000027</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="3"/>
+        <v>1183.3999999999999</v>
+      </c>
+      <c r="L42">
+        <v>820.20000000000027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="C43">
-        <f t="shared" ref="C43:C83" ca="1" si="40">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C43" ca="1" si="42">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>871.49999999999977</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43">
+        <f t="shared" ca="1" si="2"/>
+        <v>2103.1</v>
+      </c>
+      <c r="H43">
+        <v>2683.7</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="3"/>
+        <v>785.90000000000009</v>
+      </c>
+      <c r="L43">
+        <v>1014.8999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="C44">
-        <f t="shared" ref="C44:C83" ca="1" si="41">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C44" ca="1" si="43">INDIRECT("B"&amp;ROW()/2)</f>
         <v>871.49999999999977</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44">
+        <f t="shared" ca="1" si="2"/>
+        <v>2103.1</v>
+      </c>
+      <c r="H44">
+        <v>2683.7</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="3"/>
+        <v>785.90000000000009</v>
+      </c>
+      <c r="L44">
+        <v>1014.8999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="C45">
-        <f t="shared" ref="C45:C83" ca="1" si="42">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C45" ca="1" si="44">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>651.20000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45">
+        <f t="shared" ca="1" si="2"/>
+        <v>2377.6999999999998</v>
+      </c>
+      <c r="H45">
+        <v>2050.5</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="3"/>
+        <v>876.80000000000018</v>
+      </c>
+      <c r="L45">
+        <v>763.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="C46">
-        <f t="shared" ref="C46:C83" ca="1" si="43">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C46" ca="1" si="45">INDIRECT("B"&amp;ROW()/2)</f>
         <v>651.20000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46">
+        <f t="shared" ca="1" si="2"/>
+        <v>2377.6999999999998</v>
+      </c>
+      <c r="H46">
+        <v>2050.5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="3"/>
+        <v>876.80000000000018</v>
+      </c>
+      <c r="L46">
+        <v>763.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="C47">
-        <f t="shared" ref="C47:C83" ca="1" si="44">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C47" ca="1" si="46">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>969.59999999999991</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1745.2</v>
+      </c>
+      <c r="H47">
+        <v>1542.8</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="3"/>
+        <v>653.79999999999995</v>
+      </c>
+      <c r="L47">
+        <v>601.80000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="C48">
-        <f t="shared" ref="C48:C83" ca="1" si="45">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C48" ca="1" si="47">INDIRECT("B"&amp;ROW()/2)</f>
         <v>969.59999999999991</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="G48">
+        <f t="shared" ca="1" si="2"/>
+        <v>1745.2</v>
+      </c>
+      <c r="H48">
+        <v>1542.8</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="3"/>
+        <v>653.79999999999995</v>
+      </c>
+      <c r="L48">
+        <v>601.80000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
       <c r="C49">
-        <f t="shared" ref="C49:C83" ca="1" si="46">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C49" ca="1" si="48">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>956.60000000000014</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
+      <c r="G49">
+        <f t="shared" ca="1" si="2"/>
+        <v>2627.1</v>
+      </c>
+      <c r="H49">
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="3"/>
+        <v>974</v>
+      </c>
+      <c r="L49">
+        <v>791.40000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
       <c r="C50">
-        <f t="shared" ref="C50:C83" ca="1" si="47">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C50" ca="1" si="49">INDIRECT("B"&amp;ROW()/2)</f>
         <v>956.60000000000014</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="G50">
+        <f t="shared" ca="1" si="2"/>
+        <v>2627.1</v>
+      </c>
+      <c r="H50">
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="3"/>
+        <v>974</v>
+      </c>
+      <c r="L50">
+        <v>791.40000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
       <c r="C51">
-        <f t="shared" ref="C51:C83" ca="1" si="48">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C51" ca="1" si="50">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>638.80000000000018</v>
       </c>
-    </row>
-    <row r="52" spans="3:3">
+      <c r="G51">
+        <f t="shared" ca="1" si="2"/>
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="H51">
+        <v>1828.7</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="3"/>
+        <v>962.80000000000018</v>
+      </c>
+      <c r="L51">
+        <v>727.59999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
       <c r="C52">
-        <f t="shared" ref="C52:C83" ca="1" si="49">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C52" ca="1" si="51">INDIRECT("B"&amp;ROW()/2)</f>
         <v>638.80000000000018</v>
       </c>
-    </row>
-    <row r="53" spans="3:3">
+      <c r="G52">
+        <f t="shared" ca="1" si="2"/>
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="H52">
+        <v>1828.7</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="3"/>
+        <v>962.80000000000018</v>
+      </c>
+      <c r="L52">
+        <v>727.59999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
       <c r="C53">
-        <f t="shared" ref="C53:C83" ca="1" si="50">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C53" ca="1" si="52">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>814.40000000000009</v>
       </c>
-    </row>
-    <row r="54" spans="3:3">
+      <c r="G53">
+        <f t="shared" ca="1" si="2"/>
+        <v>1727.4</v>
+      </c>
+      <c r="H53">
+        <v>1855.3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="3"/>
+        <v>639.20000000000005</v>
+      </c>
+      <c r="L53">
+        <v>688.09999999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
       <c r="C54">
-        <f t="shared" ref="C54:C83" ca="1" si="51">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C54" ca="1" si="53">INDIRECT("B"&amp;ROW()/2)</f>
         <v>814.40000000000009</v>
       </c>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="G54">
+        <f t="shared" ca="1" si="2"/>
+        <v>1727.4</v>
+      </c>
+      <c r="H54">
+        <v>1855.3</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="3"/>
+        <v>639.20000000000005</v>
+      </c>
+      <c r="L54">
+        <v>688.09999999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
       <c r="C55">
-        <f t="shared" ref="C55:C83" ca="1" si="52">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C55" ca="1" si="54">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>923.8</v>
       </c>
-    </row>
-    <row r="56" spans="3:3">
+      <c r="G55">
+        <f t="shared" ca="1" si="2"/>
+        <v>2216</v>
+      </c>
+      <c r="H55">
+        <v>1772.4</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="3"/>
+        <v>816.40000000000009</v>
+      </c>
+      <c r="L55">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
       <c r="C56">
-        <f t="shared" ref="C56:C83" ca="1" si="53">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C56" ca="1" si="55">INDIRECT("B"&amp;ROW()/2)</f>
         <v>923.8</v>
       </c>
-    </row>
-    <row r="57" spans="3:3">
+      <c r="G56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2216</v>
+      </c>
+      <c r="H56">
+        <v>1772.4</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="3"/>
+        <v>816.40000000000009</v>
+      </c>
+      <c r="L56">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
       <c r="C57">
-        <f t="shared" ref="C57:C83" ca="1" si="54">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C57" ca="1" si="56">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>800.90000000000009</v>
       </c>
-    </row>
-    <row r="58" spans="3:3">
+      <c r="G57">
+        <f t="shared" ca="1" si="2"/>
+        <v>2447</v>
+      </c>
+      <c r="H57">
+        <v>3127.7</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="3"/>
+        <v>926.3</v>
+      </c>
+      <c r="L57">
+        <v>1140.5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
       <c r="C58">
-        <f t="shared" ref="C58:C83" ca="1" si="55">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C58" ca="1" si="57">INDIRECT("B"&amp;ROW()/2)</f>
         <v>800.90000000000009</v>
       </c>
-    </row>
-    <row r="59" spans="3:3">
+      <c r="G58">
+        <f t="shared" ca="1" si="2"/>
+        <v>2447</v>
+      </c>
+      <c r="H58">
+        <v>3127.7</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="3"/>
+        <v>926.3</v>
+      </c>
+      <c r="L58">
+        <v>1140.5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
       <c r="C59">
-        <f t="shared" ref="C59:C83" ca="1" si="56">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C59" ca="1" si="58">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>948</v>
       </c>
-    </row>
-    <row r="60" spans="3:3">
+      <c r="G59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2116</v>
+      </c>
+      <c r="H59">
+        <v>1557.7</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="3"/>
+        <v>808</v>
+      </c>
+      <c r="L59">
+        <v>592.70000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
       <c r="C60">
-        <f t="shared" ref="C60:C83" ca="1" si="57">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C60" ca="1" si="59">INDIRECT("B"&amp;ROW()/2)</f>
         <v>948</v>
       </c>
-    </row>
-    <row r="61" spans="3:3">
+      <c r="G60">
+        <f t="shared" ca="1" si="2"/>
+        <v>2116</v>
+      </c>
+      <c r="H60">
+        <v>1557.7</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="3"/>
+        <v>808</v>
+      </c>
+      <c r="L60">
+        <v>592.70000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
       <c r="C61">
-        <f t="shared" ref="C61:C83" ca="1" si="58">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C61" ca="1" si="60">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>767.7</v>
       </c>
-    </row>
-    <row r="62" spans="3:3">
+      <c r="G61">
+        <f t="shared" ca="1" si="2"/>
+        <v>2380</v>
+      </c>
+      <c r="H61">
+        <v>2440.5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="3"/>
+        <v>955.09999999999991</v>
+      </c>
+      <c r="L61">
+        <v>890.80000000000018</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12">
       <c r="C62">
-        <f t="shared" ref="C62:C83" ca="1" si="59">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C62" ca="1" si="61">INDIRECT("B"&amp;ROW()/2)</f>
         <v>767.7</v>
       </c>
-    </row>
-    <row r="63" spans="3:3">
+      <c r="G62">
+        <f t="shared" ca="1" si="2"/>
+        <v>2380</v>
+      </c>
+      <c r="H62">
+        <v>2440.5</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="3"/>
+        <v>955.09999999999991</v>
+      </c>
+      <c r="L62">
+        <v>890.80000000000018</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
       <c r="C63">
-        <f t="shared" ref="C63:C83" ca="1" si="60">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C63" ca="1" si="62">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>1074.5</v>
       </c>
-    </row>
-    <row r="64" spans="3:3">
+      <c r="G63">
+        <f t="shared" ca="1" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="H63">
+        <v>2463.5</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="3"/>
+        <v>769.30000000000018</v>
+      </c>
+      <c r="L63">
+        <v>966.09999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
       <c r="C64">
-        <f t="shared" ref="C64:C83" ca="1" si="61">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C64" ca="1" si="63">INDIRECT("B"&amp;ROW()/2)</f>
         <v>1074.5</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
+      <c r="G64">
+        <f t="shared" ca="1" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="H64">
+        <v>2463.5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="3"/>
+        <v>769.30000000000018</v>
+      </c>
+      <c r="L64">
+        <v>966.09999999999991</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
       <c r="C65">
-        <f t="shared" ref="C65:C83" ca="1" si="62">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C65" ca="1" si="64">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>557.1</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="G65">
+        <f t="shared" ca="1" si="2"/>
+        <v>2753.5</v>
+      </c>
+      <c r="H65">
+        <v>2107.5</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="3"/>
+        <v>1089.5999999999999</v>
+      </c>
+      <c r="L65">
+        <v>800.8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
       <c r="C66">
-        <f t="shared" ref="C66:C83" ca="1" si="63">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C66" ca="1" si="65">INDIRECT("B"&amp;ROW()/2)</f>
         <v>557.1</v>
       </c>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="G66">
+        <f t="shared" ca="1" si="2"/>
+        <v>2753.5</v>
+      </c>
+      <c r="H66">
+        <v>2107.5</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="3"/>
+        <v>1089.5999999999999</v>
+      </c>
+      <c r="L66">
+        <v>800.8</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
       <c r="C67">
-        <f t="shared" ref="C67:C83" ca="1" si="64">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C67" ca="1" si="66">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>841.80000000000018</v>
       </c>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="G67">
+        <f t="shared" ca="1" si="2"/>
+        <v>1534</v>
+      </c>
+      <c r="H67">
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ca="1" si="3"/>
+        <v>558.5</v>
+      </c>
+      <c r="L67">
+        <v>911.40000000000009</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
       <c r="C68">
-        <f t="shared" ref="C68:C83" ca="1" si="65">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C68" ca="1" si="67">INDIRECT("B"&amp;ROW()/2)</f>
         <v>841.80000000000018</v>
       </c>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="G68">
+        <f t="shared" ref="G68:G73" ca="1" si="68">OFFSET(F$3,ROUNDUP(ROW(F66)/2,0)-1,0)</f>
+        <v>1534</v>
+      </c>
+      <c r="H68">
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:L122" ca="1" si="69">OFFSET(J$3,ROUNDUP(ROW(J66)/2,0)-1,0)</f>
+        <v>558.5</v>
+      </c>
+      <c r="L68">
+        <v>911.40000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12">
       <c r="C69">
-        <f t="shared" ref="C69:C83" ca="1" si="66">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C69" ca="1" si="70">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>968.90000000000009</v>
       </c>
-    </row>
-    <row r="70" spans="3:3">
+      <c r="G69">
+        <f t="shared" ca="1" si="68"/>
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="H69">
+        <v>1608</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="69"/>
+        <v>842.39999999999986</v>
+      </c>
+      <c r="L69">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12">
       <c r="C70">
-        <f t="shared" ref="C70:C83" ca="1" si="67">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C70" ca="1" si="71">INDIRECT("B"&amp;ROW()/2)</f>
         <v>968.90000000000009</v>
       </c>
-    </row>
-    <row r="71" spans="3:3">
+      <c r="G70">
+        <f t="shared" ca="1" si="68"/>
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="H70">
+        <v>1608</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="69"/>
+        <v>842.39999999999986</v>
+      </c>
+      <c r="L70">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12">
       <c r="C71">
-        <f t="shared" ref="C71:C83" ca="1" si="68">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C71" ca="1" si="72">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>778.7</v>
       </c>
-    </row>
-    <row r="72" spans="3:3">
+      <c r="G71">
+        <f t="shared" ca="1" si="68"/>
+        <v>2563.9</v>
+      </c>
+      <c r="H71">
+        <v>2621</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="69"/>
+        <v>978.20000000000027</v>
+      </c>
+      <c r="L71">
+        <v>1043.5999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12">
       <c r="C72">
-        <f t="shared" ref="C72:C83" ca="1" si="69">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C72" ca="1" si="73">INDIRECT("B"&amp;ROW()/2)</f>
         <v>778.7</v>
       </c>
-    </row>
-    <row r="73" spans="3:3">
+      <c r="G72">
+        <f t="shared" ca="1" si="68"/>
+        <v>2563.9</v>
+      </c>
+      <c r="H72">
+        <v>2621</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="69"/>
+        <v>978.20000000000027</v>
+      </c>
+      <c r="L72">
+        <v>1043.5999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12">
       <c r="C73">
-        <f t="shared" ref="C73:C83" ca="1" si="70">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C73" ca="1" si="74">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>899.7</v>
       </c>
-    </row>
-    <row r="74" spans="3:3">
+      <c r="G73">
+        <f t="shared" ca="1" si="68"/>
+        <v>2043.3</v>
+      </c>
+      <c r="H73">
+        <v>1709.7</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="69"/>
+        <v>787.30000000000018</v>
+      </c>
+      <c r="L73">
+        <v>667.3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12">
       <c r="C74">
-        <f t="shared" ref="C74:C83" ca="1" si="71">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C74" ca="1" si="75">INDIRECT("B"&amp;ROW()/2)</f>
         <v>899.7</v>
       </c>
-    </row>
-    <row r="75" spans="3:3">
+      <c r="G74">
+        <f ca="1">OFFSET(F$3,ROUNDUP(ROW(F72)/2,0)-1,0)</f>
+        <v>2043.3</v>
+      </c>
+      <c r="H74">
+        <v>1709.7</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="69"/>
+        <v>787.30000000000018</v>
+      </c>
+      <c r="L74">
+        <v>667.3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12">
       <c r="C75">
-        <f t="shared" ref="C75:C83" ca="1" si="72">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C75" ca="1" si="76">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>872.80000000000018</v>
       </c>
-    </row>
-    <row r="76" spans="3:3">
+      <c r="G75">
+        <f t="shared" ref="G75" ca="1" si="77">OFFSET(F$3,ROUNDUP(ROW(F73)/2,0)-1,0)</f>
+        <v>2383.5</v>
+      </c>
+      <c r="H75">
+        <v>1831.4</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="69"/>
+        <v>903.90000000000009</v>
+      </c>
+      <c r="L75">
+        <v>698.5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12">
       <c r="C76">
-        <f t="shared" ref="C76:C83" ca="1" si="73">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C76" ca="1" si="78">INDIRECT("B"&amp;ROW()/2)</f>
         <v>872.80000000000018</v>
       </c>
-    </row>
-    <row r="77" spans="3:3">
+      <c r="G76">
+        <f t="shared" ref="G76" ca="1" si="79">OFFSET(F$3,ROUNDUP(ROW(F74)/2,0)-1,0)</f>
+        <v>2383.5</v>
+      </c>
+      <c r="H76">
+        <v>1831.4</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="69"/>
+        <v>903.90000000000009</v>
+      </c>
+      <c r="L76">
+        <v>698.5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12">
       <c r="C77">
-        <f t="shared" ref="C77:C83" ca="1" si="74">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C77" ca="1" si="80">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>740.90000000000009</v>
       </c>
-    </row>
-    <row r="78" spans="3:3">
+      <c r="G77">
+        <f t="shared" ref="G77" ca="1" si="81">OFFSET(F$3,ROUNDUP(ROW(F75)/2,0)-1,0)</f>
+        <v>2281.4</v>
+      </c>
+      <c r="H77">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="69"/>
+        <v>878.60000000000014</v>
+      </c>
+      <c r="L77">
+        <v>457.20000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12">
       <c r="C78">
-        <f t="shared" ref="C78:C83" ca="1" si="75">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C78" ca="1" si="82">INDIRECT("B"&amp;ROW()/2)</f>
         <v>740.90000000000009</v>
       </c>
-    </row>
-    <row r="79" spans="3:3">
+      <c r="G78">
+        <f t="shared" ref="G78" ca="1" si="83">OFFSET(F$3,ROUNDUP(ROW(F76)/2,0)-1,0)</f>
+        <v>2281.4</v>
+      </c>
+      <c r="H78">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="69"/>
+        <v>878.60000000000014</v>
+      </c>
+      <c r="L78">
+        <v>457.20000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12">
       <c r="C79">
-        <f t="shared" ref="C79:C83" ca="1" si="76">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="shared" ref="C79" ca="1" si="84">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>802.7</v>
       </c>
-    </row>
-    <row r="80" spans="3:3">
+      <c r="G79">
+        <f t="shared" ref="G79" ca="1" si="85">OFFSET(F$3,ROUNDUP(ROW(F77)/2,0)-1,0)</f>
+        <v>1885.9</v>
+      </c>
+      <c r="H79">
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="69"/>
+        <v>746.8</v>
+      </c>
+      <c r="L79">
+        <v>795.60000000000014</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12">
       <c r="C80">
-        <f t="shared" ref="C80:C83" ca="1" si="77">INDIRECT("B"&amp;ROW()/2)</f>
+        <f t="shared" ref="C80" ca="1" si="86">INDIRECT("B"&amp;ROW()/2)</f>
         <v>802.7</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80" ca="1" si="87">OFFSET(F$3,ROUNDUP(ROW(F78)/2,0)-1,0)</f>
+        <v>1885.9</v>
+      </c>
+      <c r="H80">
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="69"/>
+        <v>746.8</v>
+      </c>
+      <c r="L80">
+        <v>795.60000000000014</v>
+      </c>
+    </row>
+    <row r="81" spans="7:12">
+      <c r="G81">
+        <f t="shared" ref="G81" ca="1" si="88">OFFSET(F$3,ROUNDUP(ROW(F79)/2,0)-1,0)</f>
+        <v>2041.7</v>
+      </c>
+      <c r="H81">
+        <v>3041.3</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="69"/>
+        <v>820.20000000000027</v>
+      </c>
+      <c r="L81">
+        <v>1183.3999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12">
+      <c r="G82">
+        <f ca="1">OFFSET(F$3,ROUNDUP(ROW(F80)/2,0)-1,0)</f>
+        <v>2041.7</v>
+      </c>
+      <c r="H82">
+        <v>3041.3</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="69"/>
+        <v>820.20000000000027</v>
+      </c>
+      <c r="L82">
+        <v>1183.3999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="7:12">
+      <c r="H83">
+        <v>2103.1</v>
+      </c>
+      <c r="L83">
+        <v>785.90000000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="7:12">
+      <c r="H84">
+        <v>2103.1</v>
+      </c>
+      <c r="L84">
+        <v>785.90000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="7:12">
+      <c r="H85">
+        <v>2377.6999999999998</v>
+      </c>
+      <c r="L85">
+        <v>876.80000000000018</v>
+      </c>
+    </row>
+    <row r="86" spans="7:12">
+      <c r="H86">
+        <v>2377.6999999999998</v>
+      </c>
+      <c r="L86">
+        <v>876.80000000000018</v>
+      </c>
+    </row>
+    <row r="87" spans="7:12">
+      <c r="H87">
+        <v>1745.2</v>
+      </c>
+      <c r="L87">
+        <v>653.79999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="7:12">
+      <c r="H88">
+        <v>1745.2</v>
+      </c>
+      <c r="L88">
+        <v>653.79999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="7:12">
+      <c r="H89">
+        <v>2627.1</v>
+      </c>
+      <c r="L89">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="90" spans="7:12">
+      <c r="H90">
+        <v>2627.1</v>
+      </c>
+      <c r="L90">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="91" spans="7:12">
+      <c r="H91">
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="L91">
+        <v>962.80000000000018</v>
+      </c>
+    </row>
+    <row r="92" spans="7:12">
+      <c r="H92">
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="L92">
+        <v>962.80000000000018</v>
+      </c>
+    </row>
+    <row r="93" spans="7:12">
+      <c r="H93">
+        <v>1727.4</v>
+      </c>
+      <c r="L93">
+        <v>639.20000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="7:12">
+      <c r="H94">
+        <v>1727.4</v>
+      </c>
+      <c r="L94">
+        <v>639.20000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="7:12">
+      <c r="H95">
+        <v>2216</v>
+      </c>
+      <c r="L95">
+        <v>816.40000000000009</v>
+      </c>
+    </row>
+    <row r="96" spans="7:12">
+      <c r="H96">
+        <v>2216</v>
+      </c>
+      <c r="L96">
+        <v>816.40000000000009</v>
+      </c>
+    </row>
+    <row r="97" spans="8:12">
+      <c r="H97">
+        <v>2447</v>
+      </c>
+      <c r="L97">
+        <v>926.3</v>
+      </c>
+    </row>
+    <row r="98" spans="8:12">
+      <c r="H98">
+        <v>2447</v>
+      </c>
+      <c r="L98">
+        <v>926.3</v>
+      </c>
+    </row>
+    <row r="99" spans="8:12">
+      <c r="H99">
+        <v>2116</v>
+      </c>
+      <c r="L99">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="100" spans="8:12">
+      <c r="H100">
+        <v>2116</v>
+      </c>
+      <c r="L100">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="101" spans="8:12">
+      <c r="H101">
+        <v>2380</v>
+      </c>
+      <c r="L101">
+        <v>955.09999999999991</v>
+      </c>
+    </row>
+    <row r="102" spans="8:12">
+      <c r="H102">
+        <v>2380</v>
+      </c>
+      <c r="L102">
+        <v>955.09999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="8:12">
+      <c r="H103">
+        <v>2030</v>
+      </c>
+      <c r="L103">
+        <v>769.30000000000018</v>
+      </c>
+    </row>
+    <row r="104" spans="8:12">
+      <c r="H104">
+        <v>2030</v>
+      </c>
+      <c r="L104">
+        <v>769.30000000000018</v>
+      </c>
+    </row>
+    <row r="105" spans="8:12">
+      <c r="H105">
+        <v>2753.5</v>
+      </c>
+      <c r="L105">
+        <v>1089.5999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="8:12">
+      <c r="H106">
+        <v>2753.5</v>
+      </c>
+      <c r="L106">
+        <v>1089.5999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="8:12">
+      <c r="H107">
+        <v>1534</v>
+      </c>
+      <c r="L107">
+        <v>558.5</v>
+      </c>
+    </row>
+    <row r="108" spans="8:12">
+      <c r="H108">
+        <v>1534</v>
+      </c>
+      <c r="L108">
+        <v>558.5</v>
+      </c>
+    </row>
+    <row r="109" spans="8:12">
+      <c r="H109">
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="L109">
+        <v>842.39999999999986</v>
+      </c>
+    </row>
+    <row r="110" spans="8:12">
+      <c r="H110">
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="L110">
+        <v>842.39999999999986</v>
+      </c>
+    </row>
+    <row r="111" spans="8:12">
+      <c r="H111">
+        <v>2563.9</v>
+      </c>
+      <c r="L111">
+        <v>978.20000000000027</v>
+      </c>
+    </row>
+    <row r="112" spans="8:12">
+      <c r="H112">
+        <v>2563.9</v>
+      </c>
+      <c r="L112">
+        <v>978.20000000000027</v>
+      </c>
+    </row>
+    <row r="113" spans="8:12">
+      <c r="H113">
+        <v>2043.3</v>
+      </c>
+      <c r="L113">
+        <v>787.30000000000018</v>
+      </c>
+    </row>
+    <row r="114" spans="8:12">
+      <c r="H114">
+        <v>2043.3</v>
+      </c>
+      <c r="L114">
+        <v>787.30000000000018</v>
+      </c>
+    </row>
+    <row r="115" spans="8:12">
+      <c r="H115">
+        <v>2383.5</v>
+      </c>
+      <c r="L115">
+        <v>903.90000000000009</v>
+      </c>
+    </row>
+    <row r="116" spans="8:12">
+      <c r="H116">
+        <v>2383.5</v>
+      </c>
+      <c r="L116">
+        <v>903.90000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="8:12">
+      <c r="H117">
+        <v>2281.4</v>
+      </c>
+      <c r="L117">
+        <v>878.60000000000014</v>
+      </c>
+    </row>
+    <row r="118" spans="8:12">
+      <c r="H118">
+        <v>2281.4</v>
+      </c>
+      <c r="L118">
+        <v>878.60000000000014</v>
+      </c>
+    </row>
+    <row r="119" spans="8:12">
+      <c r="H119">
+        <v>1885.9</v>
+      </c>
+      <c r="L119">
+        <v>746.8</v>
+      </c>
+    </row>
+    <row r="120" spans="8:12">
+      <c r="H120">
+        <v>1885.9</v>
+      </c>
+      <c r="L120">
+        <v>746.8</v>
+      </c>
+    </row>
+    <row r="121" spans="8:12">
+      <c r="H121">
+        <v>2041.7</v>
+      </c>
+      <c r="L121">
+        <v>820.20000000000027</v>
+      </c>
+    </row>
+    <row r="122" spans="8:12">
+      <c r="H122">
+        <v>2041.7</v>
+      </c>
+      <c r="L122">
+        <v>820.20000000000027</v>
       </c>
     </row>
   </sheetData>
